--- a/dashboard_loader/education_naplan_uploader/education_naplan.xlsx
+++ b/dashboard_loader/education_naplan_uploader/education_naplan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Data1" sheetId="1" state="visible" r:id="rId2"/>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">Status</t>
   </si>
   <si>
-    <t xml:space="preserve">Negative change</t>
+    <t xml:space="preserve">Mixed results</t>
   </si>
   <si>
     <t xml:space="preserve">Updated</t>
@@ -264,7 +264,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:A34"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1379,7 +1379,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:A34"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2572,7 +2572,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:A34"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3730,8 +3730,8 @@
   </sheetPr>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:A34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4845,8 +4845,8 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="A3:A34 B7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/dashboard_loader/education_naplan_uploader/education_naplan.xlsx
+++ b/dashboard_loader/education_naplan_uploader/education_naplan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Mean reading" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="42">
   <si>
     <t xml:space="preserve">Mean scale score, reading, 2008-2016</t>
   </si>
@@ -132,7 +132,7 @@
     <t xml:space="preserve">Desc Body</t>
   </si>
   <si>
-    <t xml:space="preserve">The National Assessment Program—Literacy and Numeracy (NAPLAN) measures proportions of children in Years 3, 5, 7 and 9 meeting national minimum standards (NMS) and their average scores. Tracking the proportion of students meeting the NMS shows the performance of low achieving students over time. The average score is a measure of achievement and is an indication of the performance of the students, school, jurisdiction and the system as a whole. Results for the Northern Territory may reflect, in part, a high proportion of disadvantaged Indigenous students. In the Northern Territory, Indigenous children made up 44 per cent of the 5–19 year old population.</t>
+    <t xml:space="preserve">The National Assessment Program—Literacy and Numeracy (NAPLAN) measures proportions of children in Years 3, 5, 7 and 9 meeting national minimum standards (NMS) and their average scores. Tracking these measures over time provides an indication of the performance of students, schools, jurisdictions and the system as a whole. Results for the Northern Territory may reflect, in part, a high proportion of disadvantaged Indigenous students. In the Northern Territory, Indigenous children made up 44 per cent of the 5-19 year old population.</t>
   </si>
   <si>
     <t xml:space="preserve">Influences</t>
@@ -149,6 +149,36 @@
   <si>
     <t xml:space="preserve">The proportion of absent and withdrawn students varies across jurisdictions.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Australian Curriculum, Assessment and Reporting Authority</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2016.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">References</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australian Curriculum, Assessment and Reporting Authority (ACARA), 2015, National Assessment Program—Literacy and Numeracy Achievement in Reading, Persuasive Writing, Language Conventions and Numeracy: National Report for 2015. ACARA, Sydney.</t>
+  </si>
 </sst>
 </file>
 
@@ -158,7 +188,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -182,21 +212,150 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -204,8 +363,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -229,8 +403,56 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -247,23 +469,103 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -274,15 +576,15 @@
   </sheetPr>
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:L54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2322,15 +2624,15 @@
   </sheetPr>
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:L54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.2712550607288"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="58.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4370,15 +4672,15 @@
   </sheetPr>
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:L54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6418,15 +6720,15 @@
   </sheetPr>
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:L54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.2712550607288"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="58.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8464,17 +8766,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="A3:L54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="68.9838056680162"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="68.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8501,11 +8803,11 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8529,6 +8831,22 @@
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
